--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl12-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl12-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H2">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I2">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J2">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2387926666666667</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N2">
-        <v>0.716378</v>
+        <v>4.1272</v>
       </c>
       <c r="O2">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P2">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q2">
-        <v>37.51578329503911</v>
+        <v>192.8914578565333</v>
       </c>
       <c r="R2">
-        <v>337.642049655352</v>
+        <v>1736.0231207088</v>
       </c>
       <c r="S2">
-        <v>0.0271191023715089</v>
+        <v>0.1077239358932013</v>
       </c>
       <c r="T2">
-        <v>0.02837528640986598</v>
+        <v>0.1081984906603375</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>157.1060946666667</v>
+        <v>140.209918</v>
       </c>
       <c r="H3">
-        <v>471.318284</v>
+        <v>420.629754</v>
       </c>
       <c r="I3">
-        <v>0.2254482030285327</v>
+        <v>0.2353423205412711</v>
       </c>
       <c r="J3">
-        <v>0.2358911900507825</v>
+        <v>0.2363790708159033</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6404243333333333</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N3">
-        <v>1.921273</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O3">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P3">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q3">
-        <v>100.6145659395035</v>
+        <v>228.5146384594327</v>
       </c>
       <c r="R3">
-        <v>905.531093455532</v>
+        <v>2056.631746134894</v>
       </c>
       <c r="S3">
-        <v>0.07273143392261627</v>
+        <v>0.1276183846480697</v>
       </c>
       <c r="T3">
-        <v>0.07610042693458263</v>
+        <v>0.1281805801555658</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>157.1060946666667</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H4">
-        <v>471.318284</v>
+        <v>1340.005157</v>
       </c>
       <c r="I4">
-        <v>0.2254482030285327</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J4">
-        <v>0.2358911900507825</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.105929</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N4">
-        <v>3.317787</v>
+        <v>4.1272</v>
       </c>
       <c r="O4">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P4">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q4">
-        <v>173.748186168612</v>
+        <v>614.4965871078223</v>
       </c>
       <c r="R4">
-        <v>1563.733675517508</v>
+        <v>5530.4692839704</v>
       </c>
       <c r="S4">
-        <v>0.1255976667344075</v>
+        <v>0.343177410196301</v>
       </c>
       <c r="T4">
-        <v>0.1314154767063339</v>
+        <v>0.3446892049022013</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,45 +732,45 @@
         <v>1340.005157</v>
       </c>
       <c r="I5">
-        <v>0.6409718547957218</v>
+        <v>0.7497327998952026</v>
       </c>
       <c r="J5">
-        <v>0.6706623143839581</v>
+        <v>0.753035587444864</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2387926666666667</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N5">
-        <v>0.716378</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O5">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P5">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q5">
-        <v>106.6611349290384</v>
+        <v>727.9817727436142</v>
       </c>
       <c r="R5">
-        <v>959.950214361346</v>
+        <v>6551.835954692529</v>
       </c>
       <c r="S5">
-        <v>0.07710232822419605</v>
+        <v>0.4065553896989015</v>
       </c>
       <c r="T5">
-        <v>0.08067378544680527</v>
+        <v>0.4083463825426626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>446.6683856666667</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H6">
-        <v>1340.005157</v>
+        <v>2.227382</v>
       </c>
       <c r="I6">
-        <v>0.6409718547957218</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J6">
-        <v>0.6706623143839581</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,33 +806,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.6404243333333333</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N6">
-        <v>1.921273</v>
+        <v>4.1272</v>
       </c>
       <c r="O6">
-        <v>0.3226081776017146</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P6">
-        <v>0.3226081776017146</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q6">
-        <v>286.0573031116512</v>
+        <v>1.021427887822222</v>
       </c>
       <c r="R6">
-        <v>2574.515728004861</v>
+        <v>9.1928509904</v>
       </c>
       <c r="S6">
-        <v>0.2067827619696386</v>
+        <v>0.0005704360033876029</v>
       </c>
       <c r="T6">
-        <v>0.2163611470295569</v>
+        <v>0.0005729489372356759</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>446.6683856666667</v>
+        <v>0.7424606666666667</v>
       </c>
       <c r="H7">
-        <v>1340.005157</v>
+        <v>2.227382</v>
       </c>
       <c r="I7">
-        <v>0.6409718547957218</v>
+        <v>0.001246220086969543</v>
       </c>
       <c r="J7">
-        <v>0.6706623143839581</v>
+        <v>0.001251710043108525</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.105929</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N7">
-        <v>3.317787</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O7">
-        <v>0.5571020972764724</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P7">
-        <v>0.5571020972764724</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q7">
-        <v>493.983521091951</v>
+        <v>1.210065116889111</v>
       </c>
       <c r="R7">
-        <v>4445.851689827559</v>
+        <v>10.890586052002</v>
       </c>
       <c r="S7">
-        <v>0.3570867646018872</v>
+        <v>0.0006757840835819401</v>
       </c>
       <c r="T7">
-        <v>0.3736273819075959</v>
+        <v>0.0006787611058728492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4741663333333333</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H8">
-        <v>1.422499</v>
+        <v>15.67816</v>
       </c>
       <c r="I8">
-        <v>0.0006804315772309073</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J8">
-        <v>0.0007119498507637952</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2387926666666667</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N8">
-        <v>0.716378</v>
+        <v>4.1272</v>
       </c>
       <c r="O8">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P8">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q8">
-        <v>0.1132274431802222</v>
+        <v>10.78448365866667</v>
       </c>
       <c r="R8">
-        <v>1.019046988622</v>
+        <v>64.70690195200001</v>
       </c>
       <c r="S8">
-        <v>8.184892738930754E-05</v>
+        <v>0.006022801834758058</v>
       </c>
       <c r="T8">
-        <v>8.564025184889273E-05</v>
+        <v>0.004032889333671048</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4741663333333333</v>
+        <v>7.839080000000001</v>
       </c>
       <c r="H9">
-        <v>1.422499</v>
+        <v>15.67816</v>
       </c>
       <c r="I9">
-        <v>0.0006804315772309073</v>
+        <v>0.01315789428040795</v>
       </c>
       <c r="J9">
-        <v>0.0007119498507637952</v>
+        <v>0.008810572380248361</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6404243333333333</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N9">
-        <v>1.921273</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O9">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P9">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q9">
-        <v>0.303667657914111</v>
+        <v>12.77616132729334</v>
       </c>
       <c r="R9">
-        <v>2.733008921226999</v>
+        <v>76.65696796376002</v>
       </c>
       <c r="S9">
-        <v>0.0002195127911131233</v>
+        <v>0.007135092445649892</v>
       </c>
       <c r="T9">
-        <v>0.0002296808438987206</v>
+        <v>0.004777683046577314</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4741663333333333</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H10">
-        <v>1.422499</v>
+        <v>0.930769</v>
       </c>
       <c r="I10">
-        <v>0.0006804315772309073</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J10">
-        <v>0.0007119498507637952</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.105929</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N10">
-        <v>3.317787</v>
+        <v>4.1272</v>
       </c>
       <c r="O10">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P10">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q10">
-        <v>0.524394298857</v>
+        <v>0.4268299796444445</v>
       </c>
       <c r="R10">
-        <v>4.719548689713</v>
+        <v>3.8414698168</v>
       </c>
       <c r="S10">
-        <v>0.0003790698587284765</v>
+        <v>0.0002383713922609933</v>
       </c>
       <c r="T10">
-        <v>0.0003966287550161818</v>
+        <v>0.0002394214864634412</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,365 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>92.55087450000001</v>
+        <v>0.3102563333333333</v>
       </c>
       <c r="H11">
-        <v>185.101749</v>
+        <v>0.930769</v>
       </c>
       <c r="I11">
-        <v>0.1328110687813519</v>
+        <v>0.0005207651961489113</v>
       </c>
       <c r="J11">
-        <v>0.09264200718360258</v>
+        <v>0.0005230593158758034</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2387926666666667</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N11">
-        <v>0.716378</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O11">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P11">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q11">
-        <v>22.100470124187</v>
+        <v>0.5056569096732222</v>
       </c>
       <c r="R11">
-        <v>132.602820745122</v>
+        <v>4.550912187059001</v>
       </c>
       <c r="S11">
-        <v>0.01597580695684303</v>
+        <v>0.0002823938038879181</v>
       </c>
       <c r="T11">
-        <v>0.01114388157884858</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>92.55087450000001</v>
-      </c>
-      <c r="H12">
-        <v>185.101749</v>
-      </c>
-      <c r="I12">
-        <v>0.1328110687813519</v>
-      </c>
-      <c r="J12">
-        <v>0.09264200718360258</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.6404243333333333</v>
-      </c>
-      <c r="N12">
-        <v>1.921273</v>
-      </c>
-      <c r="O12">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="P12">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="Q12">
-        <v>59.2718321010795</v>
-      </c>
-      <c r="R12">
-        <v>355.630992606477</v>
-      </c>
-      <c r="S12">
-        <v>0.04284593686488791</v>
-      </c>
-      <c r="T12">
-        <v>0.02988706910686698</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>92.55087450000001</v>
-      </c>
-      <c r="H13">
-        <v>185.101749</v>
-      </c>
-      <c r="I13">
-        <v>0.1328110687813519</v>
-      </c>
-      <c r="J13">
-        <v>0.09264200718360258</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>1.105929</v>
-      </c>
-      <c r="N13">
-        <v>3.317787</v>
-      </c>
-      <c r="O13">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="P13">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="Q13">
-        <v>102.3546960849105</v>
-      </c>
-      <c r="R13">
-        <v>614.1281765094631</v>
-      </c>
-      <c r="S13">
-        <v>0.07398932495962098</v>
-      </c>
-      <c r="T13">
-        <v>0.05161105649788702</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.06163166666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.184895</v>
-      </c>
-      <c r="I14">
-        <v>8.844181716268947E-05</v>
-      </c>
-      <c r="J14">
-        <v>9.253853089314783E-05</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.2387926666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.716378</v>
-      </c>
-      <c r="O14">
-        <v>0.120289725121813</v>
-      </c>
-      <c r="P14">
-        <v>0.120289725121813</v>
-      </c>
-      <c r="Q14">
-        <v>0.01471719003444444</v>
-      </c>
-      <c r="R14">
-        <v>0.13245471031</v>
-      </c>
-      <c r="S14">
-        <v>1.063864187577356E-05</v>
-      </c>
-      <c r="T14">
-        <v>1.113143444431316E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.06163166666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.184895</v>
-      </c>
-      <c r="I15">
-        <v>8.844181716268947E-05</v>
-      </c>
-      <c r="J15">
-        <v>9.253853089314783E-05</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.6404243333333333</v>
-      </c>
-      <c r="N15">
-        <v>1.921273</v>
-      </c>
-      <c r="O15">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="P15">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="Q15">
-        <v>0.03947041903722222</v>
-      </c>
-      <c r="R15">
-        <v>0.3552337713349999</v>
-      </c>
-      <c r="S15">
-        <v>2.853205345863929E-05</v>
-      </c>
-      <c r="T15">
-        <v>2.985368680937839E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.06163166666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.184895</v>
-      </c>
-      <c r="I16">
-        <v>8.844181716268947E-05</v>
-      </c>
-      <c r="J16">
-        <v>9.253853089314783E-05</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>1.105929</v>
-      </c>
-      <c r="N16">
-        <v>3.317787</v>
-      </c>
-      <c r="O16">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="P16">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="Q16">
-        <v>0.06816024748499999</v>
-      </c>
-      <c r="R16">
-        <v>0.613442227365</v>
-      </c>
-      <c r="S16">
-        <v>4.927112182827662E-05</v>
-      </c>
-      <c r="T16">
-        <v>5.155340963945629E-05</v>
+        <v>0.0002836378294123621</v>
       </c>
     </row>
   </sheetData>
